--- a/analysis/xlsx/엑셀데이터종합본.xlsx
+++ b/analysis/xlsx/엑셀데이터종합본.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,17 +605,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>비율</t>
+          <t>나이대</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>실제공급가액</t>
+          <t>공급가액</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>예측공급가액</t>
+          <t>예측 공급가액</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -632,16 +632,192 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>10대</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>전체 10대 - 공급가액: 0.0, 예측 공급가액: 0.0
+전체 20대 - 공급가액: 5498733100.0, 예측 공급가액: 6667567670.0
+전체 30대 - 공급가액: 6163169100.0, 예측 공급가액: 7537190436.666687
+전체 40대 - 공급가액: 3613075600.0, 예측 공급가액: 4382924340.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>20대</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>5498733100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6667567670</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>30대</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6163169100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7537190436.666687</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>40대</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3613075600</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4382924340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>성별</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>7885457000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9621243266.666626</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>전체 남 - 공급가액: 7885457000.0, 예측 공급가액: 9621243266.666626
+전체 여 - 공급가액: 7389520800.0, 예측 공급가액: 8966439180.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>7389520800</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8966439180</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>비율</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>실제공급가액</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>예측공급가액</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C18" t="n">
         <v>1862381000</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D18" t="n">
         <v>660648732.7140535</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>10% - 실제공급가액: 1862381000.0, 예측공급가액: 660648732.7140535
 20% - 실제공급가액: 3581086000.0, 예측공급가액: 1270330790.3377662
@@ -649,159 +825,159 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>전체</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>20%</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C19" t="n">
         <v>3581086000</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D19" t="n">
         <v>1270330790.337766</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>전체</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>30%</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C20" t="n">
         <v>5225479000</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D20" t="n">
         <v>1853651900</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>년도</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>매출</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>판관비</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>당기순이익</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>예측매출</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>예측판관비</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>예측당기순이익</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>설명</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>전체</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B22" t="n">
         <v>15178220600</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C22" t="n">
         <v>11389134000</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D22" t="n">
         <v>3789086600</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E22" t="n">
         <v>18390942806.66675</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F22" t="n">
         <v>13817678700</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G22" t="n">
         <v>4573264106.666656</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>년도: 전체 - 매출: 15178220600, 판관비: 11389134000.0, 당기순이익: 3789086600.0, 예측 매출: 18390942806.666748, 예측 판관비: 13817678700.0, 예측 당기순이익: 4573264106.6666565</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>년도</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>지역</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>공급가액</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>예측공급가액</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>설명</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>전체</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>남구</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C24" t="n">
         <v>601772000</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D24" t="n">
         <v>624428500</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>남구 - 공급가액: 601772000, 예측 공급가액: 624428500
 기흥구 - 공급가액: 601772000, 예측 공급가액: 638696200
@@ -811,123 +987,123 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>전체</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>기흥구</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C25" t="n">
         <v>601772000</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D25" t="n">
         <v>638696200</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>전체</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>권선구</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C26" t="n">
         <v>601772000</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D26" t="n">
         <v>627926300</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>전체</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>수지구</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="C27" t="n">
         <v>601772000</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D27" t="n">
         <v>645101400</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>전체</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>단원구</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C28" t="n">
         <v>601772000</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D28" t="n">
         <v>610743200</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>년도</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>카테고리</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>실제공급가액</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>예측공급가액</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>설명</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>전체</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>미분류</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C30" t="n">
         <v>636210000</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D30" t="n">
         <v>814697000</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>전체 미분류 - 실제공급가액: 636210000, 예측공급가액: 814697000.0
 전체 블라우스 - 실제공급가액: 1100295000, 예측공급가액: 1691872500.0
@@ -939,157 +1115,157 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>전체</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>블라우스</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="C31" t="n">
         <v>1100295000</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D31" t="n">
         <v>1691872500</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>전체</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>스포츠웨어</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="C32" t="n">
         <v>2669601000</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D32" t="n">
         <v>3120695500</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>전체</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>아우터</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="C33" t="n">
         <v>478067000</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D33" t="n">
         <v>514352000</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>전체</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>원피스</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C34" t="n">
         <v>829154000</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D34" t="n">
         <v>1104714000</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>전체</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>정장</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="C35" t="n">
         <v>7339705700</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D35" t="n">
         <v>9467093900</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>전체</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>캐주얼</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="C36" t="n">
         <v>2221945100</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D36" t="n">
         <v>2351270600</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>년도</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>비율</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>실제공급가액</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>예측공급가액</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>설명</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="38">
+      <c r="A38" t="n">
         <v>2020</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="C38" t="n">
         <v>255649000</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D38" t="n">
         <v>311940419.013764</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>10% - 실제공급가액: 255649000.00000003, 예측공급가액: 311940419.01376396
 20% - 실제공급가액: 455246000.0, 예측공급가액: 555486733.7417318
@@ -1097,81 +1273,81 @@
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="39">
+      <c r="A39" t="n">
         <v>2020</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>20%</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="C39" t="n">
         <v>455246000</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D39" t="n">
         <v>555486733.7417318</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="40">
+      <c r="A40" t="n">
         <v>2020</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>30%</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C40" t="n">
         <v>628308000</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D40" t="n">
         <v>766655300</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>년도</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>나이대</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>공급가액</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>예측 공급가액</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>설명</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="42">
+      <c r="A42" t="n">
         <v>2020</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>10대</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="C42" t="n">
         <v>0</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D42" t="n">
         <v>0</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2020년도 10대 - 공급가액: 0.0, 예측 공급가액: 0.0
 2020년도 20대 - 공급가액: 509820000.0, 예측 공급가액: 509820000.0
@@ -1180,214 +1356,20 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="43">
+      <c r="A43" t="n">
         <v>2020</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>20대</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C43" t="n">
         <v>509820000</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D43" t="n">
         <v>509820000</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>30대</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>562284000</v>
-      </c>
-      <c r="D36" t="n">
-        <v>562284000</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>40대</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>331273000</v>
-      </c>
-      <c r="D37" t="n">
-        <v>331273000</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>년도</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>성별</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>공급가액</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>예측 공급가액</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>설명</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>716583000</v>
-      </c>
-      <c r="D39" t="n">
-        <v>716583000</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2020년도 남 - 공급가액: 716583000.0, 예측 공급가액: 716583000.0
-2020년도 여 - 공급가액: 686794000.0, 예측 공급가액: 686794000.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>686794000</v>
-      </c>
-      <c r="D40" t="n">
-        <v>686794000</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>년도</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>매출</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>판관비</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>당기순이익</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>예측매출</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>예측판관비</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>예측당기순이익</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>설명</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1403377000</v>
-      </c>
-      <c r="C42" t="n">
-        <v>989450000</v>
-      </c>
-      <c r="D42" t="n">
-        <v>413927000</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1403377000</v>
-      </c>
-      <c r="F42" t="n">
-        <v>989450000</v>
-      </c>
-      <c r="G42" t="n">
-        <v>413927000</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>년도: 2020 - 매출: 1403377000, 판관비: 989450000.0, 당기순이익: 413927000.0, 예측 매출: 1403377000.0, 예측 판관비: 989450000.0, 예측 당기순이익: 413927000.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>년도</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>지역</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>공급가액</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>예측 공급가액</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>설명</t>
-        </is>
       </c>
     </row>
     <row r="44">
@@ -1396,16 +1378,210 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>30대</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>562284000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>562284000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>40대</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>331273000</v>
+      </c>
+      <c r="D45" t="n">
+        <v>331273000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>성별</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>716583000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>716583000</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2020년도 남 - 공급가액: 716583000.0, 예측 공급가액: 716583000.0
+2020년도 여 - 공급가액: 686794000.0, 예측 공급가액: 686794000.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>686794000</v>
+      </c>
+      <c r="D48" t="n">
+        <v>686794000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>매출</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>판관비</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>당기순이익</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>예측매출</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>예측판관비</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>예측당기순이익</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1403377000</v>
+      </c>
+      <c r="C50" t="n">
+        <v>989450000</v>
+      </c>
+      <c r="D50" t="n">
+        <v>413927000</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1403377000</v>
+      </c>
+      <c r="F50" t="n">
+        <v>989450000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>413927000</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>년도: 2020 - 매출: 1403377000, 판관비: 989450000.0, 당기순이익: 413927000.0, 예측 매출: 1403377000.0, 예측 판관비: 989450000.0, 예측 당기순이익: 413927000.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>지역</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>군포시</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="C52" t="n">
         <v>15981000</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D52" t="n">
         <v>17579100</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2020년도 군포시 - 공급가액: 15981000, 예측 공급가액: 17579100.0
 2020년도 부산 중구 - 공급가액: 14214000, 예측 공급가액: 15635400.000000002
@@ -1415,113 +1591,113 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="53">
+      <c r="A53" t="n">
         <v>2020</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>부산 중구</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="C53" t="n">
         <v>14214000</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D53" t="n">
         <v>15635400</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="54">
+      <c r="A54" t="n">
         <v>2020</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>곡성군</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="C54" t="n">
         <v>12735000</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D54" t="n">
         <v>14008500</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="55">
+      <c r="A55" t="n">
         <v>2020</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>고성군</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C55" t="n">
         <v>12563000</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D55" t="n">
         <v>13819300</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="56">
+      <c r="A56" t="n">
         <v>2020</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>서울특별시 노원구</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="C56" t="n">
         <v>12321000</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D56" t="n">
         <v>13553100</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>년도</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>카테고리</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>실제공급가액</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>예측공급가액</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>설명</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="58">
+      <c r="A58" t="n">
         <v>2020</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>미분류</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="C58" t="n">
         <v>23040000</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D58" t="n">
         <v>91544600</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2020년도 미분류 - 실제공급가액: 23040000, 예측공급가액: 91544600.0
 2020년도 블라우스 - 실제공급가액: 84070000, 예측공급가액: 101743500.0
@@ -1533,145 +1709,145 @@
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="59">
+      <c r="A59" t="n">
         <v>2020</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>블라우스</t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="C59" t="n">
         <v>84070000</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D59" t="n">
         <v>101743500</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="60">
+      <c r="A60" t="n">
         <v>2020</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>스포츠웨어</t>
         </is>
       </c>
-      <c r="C52" t="n">
+      <c r="C60" t="n">
         <v>325488000</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D60" t="n">
         <v>443701300</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="61">
+      <c r="A61" t="n">
         <v>2020</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>아우터</t>
         </is>
       </c>
-      <c r="C53" t="n">
+      <c r="C61" t="n">
         <v>98072000</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D61" t="n">
         <v>88356400</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="62">
+      <c r="A62" t="n">
         <v>2020</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>원피스</t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="C62" t="n">
         <v>89682000</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D62" t="n">
         <v>110718800</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="63">
+      <c r="A63" t="n">
         <v>2020</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>정장</t>
         </is>
       </c>
-      <c r="C55" t="n">
+      <c r="C63" t="n">
         <v>586635000</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D63" t="n">
         <v>1042463500</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="64">
+      <c r="A64" t="n">
         <v>2020</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>캐주얼</t>
         </is>
       </c>
-      <c r="C56" t="n">
+      <c r="C64" t="n">
         <v>196390000</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D64" t="n">
         <v>418523920</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>년도</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>비율</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>실제공급가액</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>예측공급가액</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>설명</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="66">
+      <c r="A66" t="n">
         <v>2021</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="C58" t="n">
+      <c r="C66" t="n">
         <v>454357000</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D66" t="n">
         <v>369272836.0352675</v>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>10% - 실제공급가액: 454357000.0, 예측공급가액: 369272836.03526753
 20% - 실제공급가액: 840034000.0, 예측공급가액: 682726881.1662414
@@ -1679,81 +1855,81 @@
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="67">
+      <c r="A67" t="n">
         <v>2021</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>20%</t>
         </is>
       </c>
-      <c r="C59" t="n">
+      <c r="C67" t="n">
         <v>840034000</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D67" t="n">
         <v>682726881.1662414</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="68">
+      <c r="A68" t="n">
         <v>2021</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>30%</t>
         </is>
       </c>
-      <c r="C60" t="n">
+      <c r="C68" t="n">
         <v>1195773000</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D68" t="n">
         <v>971849200</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>년도</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>나이대</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>공급가액</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>예측 공급가액</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>설명</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="70">
+      <c r="A70" t="n">
         <v>2021</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>10대</t>
         </is>
       </c>
-      <c r="C62" t="n">
+      <c r="C70" t="n">
         <v>0</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D70" t="n">
         <v>0</v>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2021년도 10대 - 공급가액: 0.0, 예측 공급가액: 0.0
 2021년도 20대 - 공급가액: 1099418000.0, 예측 공급가액: 1689016000.0
@@ -1762,214 +1938,20 @@
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="71">
+      <c r="A71" t="n">
         <v>2021</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>20대</t>
         </is>
       </c>
-      <c r="C63" t="n">
+      <c r="C71" t="n">
         <v>1099418000</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D71" t="n">
         <v>1689016000</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>30대</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>1217677000</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1873070000</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>40대</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>721670600</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1112068200</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>년도</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>성별</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>공급가액</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>예측 공급가액</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>설명</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>1561954000</v>
-      </c>
-      <c r="D67" t="n">
-        <v>2407325000</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>2021년도 남 - 공급가액: 1561954000.0, 예측 공급가액: 2407325000.0
-2021년도 여 - 공급가액: 1476811600.0, 예측 공급가액: 2266829200.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>1476811600</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2266829200</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>년도</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>매출</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>판관비</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>당기순이익</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>예측매출</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>예측판관비</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>예측당기순이익</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>설명</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B70" t="n">
-        <v>3038765600</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2204864000</v>
-      </c>
-      <c r="D70" t="n">
-        <v>833901600</v>
-      </c>
-      <c r="E70" t="n">
-        <v>4674154200</v>
-      </c>
-      <c r="F70" t="n">
-        <v>3420278000</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1253876200</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>년도: 2021 - 매출: 3038765600, 판관비: 2204864000.0, 당기순이익: 833901600.0, 예측 매출: 4674154200.0, 예측 판관비: 3420278000.0, 예측 당기순이익: 1253876200.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>년도</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>지역</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>공급가액</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>예측 공급가액</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>설명</t>
-        </is>
       </c>
     </row>
     <row r="72">
@@ -1978,16 +1960,210 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>30대</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1217677000</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1873070000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>40대</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>721670600</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1112068200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>성별</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1561954000</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2407325000</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2021년도 남 - 공급가액: 1561954000.0, 예측 공급가액: 2407325000.0
+2021년도 여 - 공급가액: 1476811600.0, 예측 공급가액: 2266829200.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1476811600</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2266829200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>매출</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>판관비</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>당기순이익</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>예측매출</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>예측판관비</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>예측당기순이익</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3038765600</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2204864000</v>
+      </c>
+      <c r="D78" t="n">
+        <v>833901600</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4674154200</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3420278000</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1253876200</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>년도: 2021 - 매출: 3038765600, 판관비: 2204864000.0, 당기순이익: 833901600.0, 예측 매출: 4674154200.0, 예측 판관비: 3420278000.0, 예측 당기순이익: 1253876200.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>지역</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
           <t>군포시</t>
         </is>
       </c>
-      <c r="C72" t="n">
+      <c r="C80" t="n">
         <v>32072000</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D80" t="n">
         <v>35279200</v>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2021년도 군포시 - 공급가액: 32072000, 예측 공급가액: 35279200.0
 2021년도 속초시 - 공급가액: 28294000, 예측 공급가액: 31123400.000000004
@@ -1997,113 +2173,113 @@
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="81">
+      <c r="A81" t="n">
         <v>2021</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>속초시</t>
         </is>
       </c>
-      <c r="C73" t="n">
+      <c r="C81" t="n">
         <v>28294000</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D81" t="n">
         <v>31123400</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="82">
+      <c r="A82" t="n">
         <v>2021</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>남원시</t>
         </is>
       </c>
-      <c r="C74" t="n">
+      <c r="C82" t="n">
         <v>25802000</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D82" t="n">
         <v>28382200</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="83">
+      <c r="A83" t="n">
         <v>2021</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>고성군</t>
         </is>
       </c>
-      <c r="C75" t="n">
+      <c r="C83" t="n">
         <v>25748000</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D83" t="n">
         <v>28322800</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="84">
+      <c r="A84" t="n">
         <v>2021</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>서울특별시 노원구</t>
         </is>
       </c>
-      <c r="C76" t="n">
+      <c r="C84" t="n">
         <v>24942000</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D84" t="n">
         <v>27436200</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>년도</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>카테고리</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>실제공급가액</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>예측공급가액</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>설명</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="86">
+      <c r="A86" t="n">
         <v>2021</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>미분류</t>
         </is>
       </c>
-      <c r="C78" t="n">
+      <c r="C86" t="n">
         <v>110120000</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D86" t="n">
         <v>127242000</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2021년도 미분류 - 실제공급가액: 110120000, 예측공급가액: 127242000.0
 2021년도 블라우스 - 실제공급가액: 160590000, 예측공급가액: 220059000.0
@@ -2115,145 +2291,145 @@
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="87">
+      <c r="A87" t="n">
         <v>2021</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>블라우스</t>
         </is>
       </c>
-      <c r="C79" t="n">
+      <c r="C87" t="n">
         <v>160590000</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D87" t="n">
         <v>220059000</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="88">
+      <c r="A88" t="n">
         <v>2021</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>스포츠웨어</t>
         </is>
       </c>
-      <c r="C80" t="n">
+      <c r="C88" t="n">
         <v>583875000</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D88" t="n">
         <v>533920200</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="89">
+      <c r="A89" t="n">
         <v>2021</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>아우터</t>
         </is>
       </c>
-      <c r="C81" t="n">
+      <c r="C89" t="n">
         <v>103730000</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D89" t="n">
         <v>95613400</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="90">
+      <c r="A90" t="n">
         <v>2021</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>원피스</t>
         </is>
       </c>
-      <c r="C82" t="n">
+      <c r="C90" t="n">
         <v>168906000</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D90" t="n">
         <v>165830800</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="91">
+      <c r="A91" t="n">
         <v>2021</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>정장</t>
         </is>
       </c>
-      <c r="C83" t="n">
+      <c r="C91" t="n">
         <v>1470026600</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D91" t="n">
         <v>1467941140</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="92">
+      <c r="A92" t="n">
         <v>2021</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>캐주얼</t>
         </is>
       </c>
-      <c r="C84" t="n">
+      <c r="C92" t="n">
         <v>441518000</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D92" t="n">
         <v>444389020</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>년도</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>비율</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>실제공급가액</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>예측공급가액</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>설명</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="94">
+      <c r="A94" t="n">
         <v>2022</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="C86" t="n">
+      <c r="C94" t="n">
         <v>369101000</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D94" t="n">
         <v>442512971.8788061</v>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>10% - 실제공급가액: 369101000.0, 예측공급가액: 442512971.8788061
 20% - 실제공급가액: 689633100.0, 예측공급가액: 826796981.2788204
@@ -2261,81 +2437,81 @@
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="95">
+      <c r="A95" t="n">
         <v>2022</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>20%</t>
         </is>
       </c>
-      <c r="C87" t="n">
+      <c r="C95" t="n">
         <v>689633100</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D95" t="n">
         <v>826796981.2788204</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="96">
+      <c r="A96" t="n">
         <v>2022</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>30%</t>
         </is>
       </c>
-      <c r="C88" t="n">
+      <c r="C96" t="n">
         <v>987155100</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D96" t="n">
         <v>1183494320</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>년도</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>나이대</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>공급가액</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>예측 공급가액</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>설명</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="98">
+      <c r="A98" t="n">
         <v>2022</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>10대</t>
         </is>
       </c>
-      <c r="C90" t="n">
+      <c r="C98" t="n">
         <v>0</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D98" t="n">
         <v>0</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2022년도 10대 - 공급가액: 0.0, 예측 공급가액: 0.0
 2022년도 20대 - 공급가액: 931728100.0, 예측 공급가액: 1268896800.0
@@ -2344,214 +2520,20 @@
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="99">
+      <c r="A99" t="n">
         <v>2022</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>20대</t>
         </is>
       </c>
-      <c r="C91" t="n">
+      <c r="C99" t="n">
         <v>931728100</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D99" t="n">
         <v>1268896800</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>30대</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>1070262100</v>
-      </c>
-      <c r="D92" t="n">
-        <v>1458052466.666687</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>40대</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>608244000</v>
-      </c>
-      <c r="D93" t="n">
-        <v>830700200</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>년도</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>성별</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>공급가액</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>예측 공급가액</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>설명</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>1357534000</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1852974666.666626</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>2022년도 남 - 공급가액: 1357534000.0, 예측 공급가액: 1852974666.666626
-2022년도 여 - 공급가액: 1252700200.0, 예측 공급가액: 1704674800.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>1252700200</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1704674800</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>년도</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>매출</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>판관비</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>당기순이익</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>예측매출</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>예측판관비</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>예측당기순이익</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>설명</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B98" t="n">
-        <v>2513477000</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1943375000</v>
-      </c>
-      <c r="D98" t="n">
-        <v>570102000</v>
-      </c>
-      <c r="E98" t="n">
-        <v>3428639866.666748</v>
-      </c>
-      <c r="F98" t="n">
-        <v>2666488000</v>
-      </c>
-      <c r="G98" t="n">
-        <v>762151866.6666565</v>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>년도: 2022 - 매출: 2513477000, 판관비: 1943375000.0, 당기순이익: 570102000.0, 예측 매출: 3428639866.666748, 예측 판관비: 2666488000.0, 예측 당기순이익: 762151866.6666565</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>년도</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>지역</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>공급가액</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>예측 공급가액</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>설명</t>
-        </is>
       </c>
     </row>
     <row r="100">
@@ -2560,16 +2542,210 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>30대</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>1070262100</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1458052466.666687</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>40대</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>608244000</v>
+      </c>
+      <c r="D101" t="n">
+        <v>830700200</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>성별</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1357534000</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1852974666.666626</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2022년도 남 - 공급가액: 1357534000.0, 예측 공급가액: 1852974666.666626
+2022년도 여 - 공급가액: 1252700200.0, 예측 공급가액: 1704674800.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1252700200</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1704674800</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>매출</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>판관비</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>당기순이익</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>예측매출</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>예측판관비</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>예측당기순이익</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2513477000</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1943375000</v>
+      </c>
+      <c r="D106" t="n">
+        <v>570102000</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3428639866.666748</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2666488000</v>
+      </c>
+      <c r="G106" t="n">
+        <v>762151866.6666565</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>년도: 2022 - 매출: 2513477000, 판관비: 1943375000.0, 당기순이익: 570102000.0, 예측 매출: 3428639866.666748, 예측 판관비: 2666488000.0, 예측 당기순이익: 762151866.6666565</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>지역</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
           <t>군포시</t>
         </is>
       </c>
-      <c r="C100" t="n">
+      <c r="C108" t="n">
         <v>26901000</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D108" t="n">
         <v>29591100</v>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2022년도 군포시 - 공급가액: 26901000, 예측 공급가액: 29591100.000000004
 2022년도 남원시 - 공급가액: 22877000, 예측 공급가액: 25164700.000000004
@@ -2579,113 +2755,113 @@
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="109">
+      <c r="A109" t="n">
         <v>2022</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>남원시</t>
         </is>
       </c>
-      <c r="C101" t="n">
+      <c r="C109" t="n">
         <v>22877000</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D109" t="n">
         <v>25164700</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="110">
+      <c r="A110" t="n">
         <v>2022</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>성주군</t>
         </is>
       </c>
-      <c r="C102" t="n">
+      <c r="C110" t="n">
         <v>22571000</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D110" t="n">
         <v>24828100</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="111">
+      <c r="A111" t="n">
         <v>2022</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>속초시</t>
         </is>
       </c>
-      <c r="C103" t="n">
+      <c r="C111" t="n">
         <v>22396000</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D111" t="n">
         <v>24635600</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="112">
+      <c r="A112" t="n">
         <v>2022</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>서울특별시 중구</t>
         </is>
       </c>
-      <c r="C104" t="n">
+      <c r="C112" t="n">
         <v>22250000</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D112" t="n">
         <v>24475000</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>년도</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>카테고리</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>실제공급가액</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>예측공급가액</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>설명</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="114">
+      <c r="A114" t="n">
         <v>2022</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>미분류</t>
         </is>
       </c>
-      <c r="C106" t="n">
+      <c r="C114" t="n">
         <v>191163000</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D114" t="n">
         <v>162939400</v>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2022년도 미분류 - 실제공급가액: 191163000, 예측공급가액: 162939400.0
 2022년도 블라우스 - 실제공급가액: 18875000, 예측공급가액: 338374500.0
@@ -2697,145 +2873,145 @@
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="115">
+      <c r="A115" t="n">
         <v>2022</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>블라우스</t>
         </is>
       </c>
-      <c r="C107" t="n">
+      <c r="C115" t="n">
         <v>18875000</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D115" t="n">
         <v>338374500</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="116">
+      <c r="A116" t="n">
         <v>2022</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>스포츠웨어</t>
         </is>
       </c>
-      <c r="C108" t="n">
+      <c r="C116" t="n">
         <v>404155000</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D116" t="n">
         <v>624139100</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
+    <row r="117">
+      <c r="A117" t="n">
         <v>2022</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>아우터</t>
         </is>
       </c>
-      <c r="C109" t="n">
+      <c r="C117" t="n">
         <v>38137000</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D117" t="n">
         <v>102870400</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="118">
+      <c r="A118" t="n">
         <v>2022</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>원피스</t>
         </is>
       </c>
-      <c r="C110" t="n">
+      <c r="C118" t="n">
         <v>36856000</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D118" t="n">
         <v>220942800</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
+    <row r="119">
+      <c r="A119" t="n">
         <v>2022</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>정장</t>
         </is>
       </c>
-      <c r="C111" t="n">
+      <c r="C119" t="n">
         <v>1103948100</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D119" t="n">
         <v>1893418780</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
+    <row r="120">
+      <c r="A120" t="n">
         <v>2022</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>캐주얼</t>
         </is>
       </c>
-      <c r="C112" t="n">
+      <c r="C120" t="n">
         <v>817100100</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D120" t="n">
         <v>470254120</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>년도</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>비율</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>실제공급가액</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>예측공급가액</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>설명</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
+    <row r="122">
+      <c r="A122" t="n">
         <v>2023</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="C114" t="n">
+      <c r="C122" t="n">
         <v>446037000</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D122" t="n">
         <v>557025230.2516929</v>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>10% - 실제공급가액: 446037000.0, 예측공급가액: 557025230.2516929
 20% - 실제공급가액: 828344000.0, 예측공급가액: 1034462404.0777072
@@ -2843,81 +3019,81 @@
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
+    <row r="123">
+      <c r="A123" t="n">
         <v>2023</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>20%</t>
         </is>
       </c>
-      <c r="C115" t="n">
+      <c r="C123" t="n">
         <v>828344000</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D123" t="n">
         <v>1034462404.077707</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
+    <row r="124">
+      <c r="A124" t="n">
         <v>2023</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>30%</t>
         </is>
       </c>
-      <c r="C116" t="n">
+      <c r="C124" t="n">
         <v>1175798000</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D124" t="n">
         <v>1468374040</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>년도</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>나이대</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>공급가액</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>예측 공급가액</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>설명</t>
         </is>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
+    <row r="126">
+      <c r="A126" t="n">
         <v>2023</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>10대</t>
         </is>
       </c>
-      <c r="C118" t="n">
+      <c r="C126" t="n">
         <v>0</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D126" t="n">
         <v>0</v>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2023년도 10대 - 공급가액: 0.0, 예측 공급가액: 0.0
 2023년도 20대 - 공급가액: 1071702000.0, 예측 공급가액: 1282656050.0
@@ -2926,214 +3102,20 @@
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
+    <row r="127">
+      <c r="A127" t="n">
         <v>2023</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>20대</t>
         </is>
       </c>
-      <c r="C119" t="n">
+      <c r="C127" t="n">
         <v>1071702000</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D127" t="n">
         <v>1282656050</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>30대</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>1245810000</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1499799050</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>40대</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>702735000</v>
-      </c>
-      <c r="D121" t="n">
-        <v>841220500</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>년도</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>성별</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>공급가액</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>예측 공급가액</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>설명</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>1565283000</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1885758500</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>2023년도 남 - 공급가액: 1565283000.0, 예측 공급가액: 1885758500.0
-2023년도 여 - 공급가액: 1454964000.0, 예측 공급가액: 1737917100.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>1454964000</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1737917100</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>년도</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>매출</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>판관비</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>당기순이익</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>예측매출</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>예측판관비</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>예측당기순이익</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>설명</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B126" t="n">
-        <v>3020247000</v>
-      </c>
-      <c r="C126" t="n">
-        <v>2129908000</v>
-      </c>
-      <c r="D126" t="n">
-        <v>890339000</v>
-      </c>
-      <c r="E126" t="n">
-        <v>3575297000</v>
-      </c>
-      <c r="F126" t="n">
-        <v>2606870500</v>
-      </c>
-      <c r="G126" t="n">
-        <v>968426500</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>년도: 2023 - 매출: 3020247000, 판관비: 2129908000.0, 당기순이익: 890339000.0, 예측 매출: 3575297000.0, 예측 판관비: 2606870500.0, 예측 당기순이익: 968426500.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>년도</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>지역</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>공급가액</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>예측 공급가액</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>설명</t>
-        </is>
       </c>
     </row>
     <row r="128">
@@ -3142,16 +3124,210 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
+          <t>30대</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1245810000</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1499799050</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>40대</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>702735000</v>
+      </c>
+      <c r="D129" t="n">
+        <v>841220500</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>성별</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1565283000</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1885758500</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2023년도 남 - 공급가액: 1565283000.0, 예측 공급가액: 1885758500.0
+2023년도 여 - 공급가액: 1454964000.0, 예측 공급가액: 1737917100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1454964000</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1737917100</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>매출</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>판관비</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>당기순이익</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>예측매출</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>예측판관비</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>예측당기순이익</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3020247000</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2129908000</v>
+      </c>
+      <c r="D134" t="n">
+        <v>890339000</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3575297000</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2606870500</v>
+      </c>
+      <c r="G134" t="n">
+        <v>968426500</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>년도: 2023 - 매출: 3020247000, 판관비: 2129908000.0, 당기순이익: 890339000.0, 예측 매출: 3575297000.0, 예측 판관비: 2606870500.0, 예측 당기순이익: 968426500.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>지역</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
           <t>군포시</t>
         </is>
       </c>
-      <c r="C128" t="n">
+      <c r="C136" t="n">
         <v>32536000</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D136" t="n">
         <v>35789600</v>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2023년도 군포시 - 공급가액: 32536000, 예측 공급가액: 35789600.0
 2023년도 속초시 - 공급가액: 26665000, 예측 공급가액: 29331500.000000004
@@ -3161,113 +3337,113 @@
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="n">
+    <row r="137">
+      <c r="A137" t="n">
         <v>2023</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>속초시</t>
         </is>
       </c>
-      <c r="C129" t="n">
+      <c r="C137" t="n">
         <v>26665000</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D137" t="n">
         <v>29331500</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="n">
+    <row r="138">
+      <c r="A138" t="n">
         <v>2023</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>곡성군</t>
         </is>
       </c>
-      <c r="C130" t="n">
+      <c r="C138" t="n">
         <v>26505000</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D138" t="n">
         <v>29155500</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="n">
+    <row r="139">
+      <c r="A139" t="n">
         <v>2023</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>서울특별시 노원구</t>
         </is>
       </c>
-      <c r="C131" t="n">
+      <c r="C139" t="n">
         <v>26264000</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D139" t="n">
         <v>28890400</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="n">
+    <row r="140">
+      <c r="A140" t="n">
         <v>2023</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>증평군</t>
         </is>
       </c>
-      <c r="C132" t="n">
+      <c r="C140" t="n">
         <v>25991000</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D140" t="n">
         <v>28590100</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>년도</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>카테고리</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>실제공급가액</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>예측공급가액</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>설명</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="n">
+    <row r="142">
+      <c r="A142" t="n">
         <v>2023</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>미분류</t>
         </is>
       </c>
-      <c r="C134" t="n">
+      <c r="C142" t="n">
         <v>110600000</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D142" t="n">
         <v>198636800</v>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2023년도 미분류 - 실제공급가액: 110600000, 예측공급가액: 198636800.0
 2023년도 블라우스 - 실제공급가액: 161635000, 예측공급가액: 456690000.0
@@ -3279,145 +3455,145 @@
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="n">
+    <row r="143">
+      <c r="A143" t="n">
         <v>2023</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>블라우스</t>
         </is>
       </c>
-      <c r="C135" t="n">
+      <c r="C143" t="n">
         <v>161635000</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D143" t="n">
         <v>456690000</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="n">
+    <row r="144">
+      <c r="A144" t="n">
         <v>2023</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>스포츠웨어</t>
         </is>
       </c>
-      <c r="C136" t="n">
+      <c r="C144" t="n">
         <v>575126000</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D144" t="n">
         <v>714358000</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="n">
+    <row r="145">
+      <c r="A145" t="n">
         <v>2023</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>아우터</t>
         </is>
       </c>
-      <c r="C137" t="n">
+      <c r="C145" t="n">
         <v>103812000</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D145" t="n">
         <v>110127400</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="n">
+    <row r="146">
+      <c r="A146" t="n">
         <v>2023</v>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>원피스</t>
         </is>
       </c>
-      <c r="C138" t="n">
+      <c r="C146" t="n">
         <v>168030000</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D146" t="n">
         <v>276054800</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="n">
+    <row r="147">
+      <c r="A147" t="n">
         <v>2023</v>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>정장</t>
         </is>
       </c>
-      <c r="C139" t="n">
+      <c r="C147" t="n">
         <v>1460119000</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D147" t="n">
         <v>2318896420</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="n">
+    <row r="148">
+      <c r="A148" t="n">
         <v>2023</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>캐주얼</t>
         </is>
       </c>
-      <c r="C140" t="n">
+      <c r="C148" t="n">
         <v>440925000</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D148" t="n">
         <v>496119220</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>년도</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>비율</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>실제공급가액</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>예측공급가액</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>설명</t>
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="n">
+    <row r="150">
+      <c r="A150" t="n">
         <v>2024</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="C142" t="n">
+      <c r="C150" t="n">
         <v>750781000</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D150" t="n">
         <v>727843933.7285652</v>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>10% - 실제공급가액: 750781000.0, 예측공급가액: 727843933.7285652
 20% - 실제공급가액: 1405981000.0, 예측공급가액: 1363026956.978962
@@ -3425,81 +3601,81 @@
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="n">
+    <row r="151">
+      <c r="A151" t="n">
         <v>2024</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>20%</t>
         </is>
       </c>
-      <c r="C143" t="n">
+      <c r="C151" t="n">
         <v>1405981000</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D151" t="n">
         <v>1363026956.978962</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="n">
+    <row r="152">
+      <c r="A152" t="n">
         <v>2024</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>30%</t>
         </is>
       </c>
-      <c r="C144" t="n">
+      <c r="C152" t="n">
         <v>2008998000</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D152" t="n">
         <v>1947621220</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>년도</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>나이대</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>공급가액</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>예측 공급가액</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>설명</t>
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="n">
+    <row r="154">
+      <c r="A154" t="n">
         <v>2024</v>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>10대</t>
         </is>
       </c>
-      <c r="C146" t="n">
+      <c r="C154" t="n">
         <v>0</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D154" t="n">
         <v>0</v>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2024년도 10대 - 공급가액: 0.0, 예측 공급가액: 0.0
 2024년도 20대 - 공급가액: 1886065000.0, 예측 공급가액: 1917178820.0
@@ -3508,214 +3684,20 @@
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="n">
+    <row r="155">
+      <c r="A155" t="n">
         <v>2024</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>20대</t>
         </is>
       </c>
-      <c r="C147" t="n">
+      <c r="C155" t="n">
         <v>1886065000</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D155" t="n">
         <v>1917178820</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>30대</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>2067136000</v>
-      </c>
-      <c r="D148" t="n">
-        <v>2143984920</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>40대</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
-        <v>1249153000</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1267662440</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>년도</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>성별</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>공급가액</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>예측 공급가액</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>설명</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>2684103000</v>
-      </c>
-      <c r="D151" t="n">
-        <v>2758602100</v>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>2024년도 남 - 공급가액: 2684103000.0, 예측 공급가액: 2758602100.0
-2024년도 여 - 공급가액: 2518251000.0, 예측 공급가액: 2570224080.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>2518251000</v>
-      </c>
-      <c r="D152" t="n">
-        <v>2570224080</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>년도</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>매출</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>판관비</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>당기순이익</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>예측매출</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>예측판관비</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>예측당기순이익</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>설명</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B154" t="n">
-        <v>5202354000</v>
-      </c>
-      <c r="C154" t="n">
-        <v>4121537000</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1080817000</v>
-      </c>
-      <c r="E154" t="n">
-        <v>5309474740</v>
-      </c>
-      <c r="F154" t="n">
-        <v>4134592200</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1174882540</v>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>년도: 2024 - 매출: 5202354000, 판관비: 4121537000.0, 당기순이익: 1080817000.0, 예측 매출: 5309474740.0, 예측 판관비: 4134592200.0, 예측 당기순이익: 1174882540.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>년도</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>지역</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>공급가액</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>예측 공급가액</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>설명</t>
-        </is>
       </c>
     </row>
     <row r="156">
@@ -3724,16 +3706,210 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
+          <t>30대</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>2067136000</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2143984920</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>40대</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>1249153000</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1267662440</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>성별</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>2684103000</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2758602100</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2024년도 남 - 공급가액: 2684103000.0, 예측 공급가액: 2758602100.0
+2024년도 여 - 공급가액: 2518251000.0, 예측 공급가액: 2570224080.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>2518251000</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2570224080</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>매출</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>판관비</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>당기순이익</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>예측매출</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>예측판관비</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>예측당기순이익</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5202354000</v>
+      </c>
+      <c r="C162" t="n">
+        <v>4121537000</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1080817000</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5309474740</v>
+      </c>
+      <c r="F162" t="n">
+        <v>4134592200</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1174882540</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>년도: 2024 - 매출: 5202354000, 판관비: 4121537000.0, 당기순이익: 1080817000.0, 예측 매출: 5309474740.0, 예측 판관비: 4134592200.0, 예측 당기순이익: 1174882540.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>지역</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
           <t>권선구</t>
         </is>
       </c>
-      <c r="C156" t="n">
+      <c r="C164" t="n">
         <v>601772000</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D164" t="n">
         <v>620577375</v>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2024년도 권선구 - 공급가액: 601772000, 예측 공급가액: 620577375.0
 2024년도 기흥구 - 공급가액: 601772000, 예측 공급가액: 620577375.0
@@ -3743,113 +3919,113 @@
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="n">
+    <row r="165">
+      <c r="A165" t="n">
         <v>2024</v>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B165" t="inlineStr">
         <is>
           <t>기흥구</t>
         </is>
       </c>
-      <c r="C157" t="n">
+      <c r="C165" t="n">
         <v>601772000</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D165" t="n">
         <v>620577375</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="n">
+    <row r="166">
+      <c r="A166" t="n">
         <v>2024</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t>남구</t>
         </is>
       </c>
-      <c r="C158" t="n">
+      <c r="C166" t="n">
         <v>601772000</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D166" t="n">
         <v>620577375</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="n">
+    <row r="167">
+      <c r="A167" t="n">
         <v>2024</v>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t>단원구</t>
         </is>
       </c>
-      <c r="C159" t="n">
+      <c r="C167" t="n">
         <v>601772000</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D167" t="n">
         <v>620577375</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="n">
+    <row r="168">
+      <c r="A168" t="n">
         <v>2024</v>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>수지구</t>
         </is>
       </c>
-      <c r="C160" t="n">
+      <c r="C168" t="n">
         <v>601772000</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D168" t="n">
         <v>620577375</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+    <row r="169">
+      <c r="A169" t="inlineStr">
         <is>
           <t>년도</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>카테고리</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>실제공급가액</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>예측공급가액</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>설명</t>
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="n">
+    <row r="170">
+      <c r="A170" t="n">
         <v>2024</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>미분류</t>
         </is>
       </c>
-      <c r="C162" t="n">
+      <c r="C170" t="n">
         <v>201287000</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D170" t="n">
         <v>234334200</v>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2024년도 미분류 - 실제공급가액: 201287000, 예측공급가액: 234334200.0
 2024년도 블라우스 - 실제공급가액: 675125000, 예측공급가액: 575005500.0
@@ -3861,99 +4037,3459 @@
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="n">
+    <row r="171">
+      <c r="A171" t="n">
         <v>2024</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>블라우스</t>
         </is>
       </c>
-      <c r="C163" t="n">
+      <c r="C171" t="n">
         <v>675125000</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D171" t="n">
         <v>575005500</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="n">
+    <row r="172">
+      <c r="A172" t="n">
         <v>2024</v>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>스포츠웨어</t>
         </is>
       </c>
-      <c r="C164" t="n">
+      <c r="C172" t="n">
         <v>780957000</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D172" t="n">
         <v>804576900</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="n">
+    <row r="173">
+      <c r="A173" t="n">
         <v>2024</v>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>아우터</t>
         </is>
       </c>
-      <c r="C165" t="n">
+      <c r="C173" t="n">
         <v>134316000</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D173" t="n">
         <v>117384400</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="n">
+    <row r="174">
+      <c r="A174" t="n">
         <v>2024</v>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>원피스</t>
         </is>
       </c>
-      <c r="C166" t="n">
+      <c r="C174" t="n">
         <v>365680000</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D174" t="n">
         <v>331166800</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="n">
+    <row r="175">
+      <c r="A175" t="n">
         <v>2024</v>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>정장</t>
         </is>
       </c>
-      <c r="C167" t="n">
+      <c r="C175" t="n">
         <v>2718977000</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D175" t="n">
         <v>2744374060</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="n">
+    <row r="176">
+      <c r="A176" t="n">
         <v>2024</v>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>캐주얼</t>
         </is>
       </c>
-      <c r="C168" t="n">
+      <c r="C176" t="n">
         <v>326012000</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D176" t="n">
+        <v>521984320</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>비율</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>실제공급가액</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>예측공급가액</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1862381000</v>
+      </c>
+      <c r="D178" t="n">
+        <v>660648732.7140535</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>10% - 실제공급가액: 1862381000.0, 예측공급가액: 660648732.7140535
+20% - 실제공급가액: 3581086000.0, 예측공급가액: 1270330790.3377662
+30% - 실제공급가액: 5225479000.0, 예측공급가액: 1853651900.0000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>3581086000</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1270330790.337766</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>5225479000</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1853651900</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>매출</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>판관비</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>당기순이익</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>예측매출</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>예측판관비</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>예측당기순이익</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>15178220600</v>
+      </c>
+      <c r="C182" t="n">
+        <v>11389134000</v>
+      </c>
+      <c r="D182" t="n">
+        <v>3789086600</v>
+      </c>
+      <c r="E182" t="n">
+        <v>18390942806.66675</v>
+      </c>
+      <c r="F182" t="n">
+        <v>13817678700</v>
+      </c>
+      <c r="G182" t="n">
+        <v>4573264106.666656</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>년도: 전체 - 매출: 15178220600, 판관비: 11389134000.0, 당기순이익: 3789086600.0, 예측 매출: 18390942806.666748, 예측 판관비: 13817678700.0, 예측 당기순이익: 4573264106.6666565</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>지역</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>예측공급가액</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>남구</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>601772000</v>
+      </c>
+      <c r="D184" t="n">
+        <v>624428500</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>남구 - 공급가액: 601772000, 예측 공급가액: 624428500
+기흥구 - 공급가액: 601772000, 예측 공급가액: 638696200
+권선구 - 공급가액: 601772000, 예측 공급가액: 627926300
+수지구 - 공급가액: 601772000, 예측 공급가액: 645101400
+단원구 - 공급가액: 601772000, 예측 공급가액: 610743200</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>기흥구</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>601772000</v>
+      </c>
+      <c r="D185" t="n">
+        <v>638696200</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>권선구</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>601772000</v>
+      </c>
+      <c r="D186" t="n">
+        <v>627926300</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>수지구</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>601772000</v>
+      </c>
+      <c r="D187" t="n">
+        <v>645101400</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>단원구</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>601772000</v>
+      </c>
+      <c r="D188" t="n">
+        <v>610743200</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>카테고리</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>실제공급가액</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>예측공급가액</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>미분류</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>636210000</v>
+      </c>
+      <c r="D190" t="n">
+        <v>814697000</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>전체 미분류 - 실제공급가액: 636210000, 예측공급가액: 814697000.0
+전체 블라우스 - 실제공급가액: 1100295000, 예측공급가액: 1691872500.0
+전체 스포츠웨어 - 실제공급가액: 2669601000, 예측공급가액: 3120695500.0
+전체 아우터 - 실제공급가액: 478067000, 예측공급가액: 514352000.0
+전체 원피스 - 실제공급가액: 829154000, 예측공급가액: 1104714000.0
+전체 정장 - 실제공급가액: 7339705700, 예측공급가액: 9467093900.0
+전체 캐주얼 - 실제공급가액: 2221945100, 예측공급가액: 2351270600.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>블라우스</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>1100295000</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1691872500</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>스포츠웨어</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>2669601000</v>
+      </c>
+      <c r="D192" t="n">
+        <v>3120695500</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>아우터</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>478067000</v>
+      </c>
+      <c r="D193" t="n">
+        <v>514352000</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>원피스</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>829154000</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1104714000</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>정장</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>7339705700</v>
+      </c>
+      <c r="D195" t="n">
+        <v>9467093900</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>캐주얼</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>2221945100</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2351270600</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>비율</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>실제공급가액</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>예측공급가액</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>255649000</v>
+      </c>
+      <c r="D198" t="n">
+        <v>311940419.013764</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>10% - 실제공급가액: 255649000.00000003, 예측공급가액: 311940419.01376396
+20% - 실제공급가액: 455246000.0, 예측공급가액: 555486733.7417318
+30% - 실제공급가액: 628308000.0, 예측공급가액: 766655300.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>455246000</v>
+      </c>
+      <c r="D199" t="n">
+        <v>555486733.7417318</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>628308000</v>
+      </c>
+      <c r="D200" t="n">
+        <v>766655300</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>나이대</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>10대</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>2020년도 10대 - 공급가액: 0.0, 예측 공급가액: 0.0
+2020년도 20대 - 공급가액: 509820000.0, 예측 공급가액: 509820000.0
+2020년도 30대 - 공급가액: 562284000.0, 예측 공급가액: 562284000.0
+2020년도 40대 - 공급가액: 331273000.0, 예측 공급가액: 331273000.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>20대</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>509820000</v>
+      </c>
+      <c r="D203" t="n">
+        <v>509820000</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>30대</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>562284000</v>
+      </c>
+      <c r="D204" t="n">
+        <v>562284000</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>40대</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>331273000</v>
+      </c>
+      <c r="D205" t="n">
+        <v>331273000</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>성별</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>716583000</v>
+      </c>
+      <c r="D207" t="n">
+        <v>716583000</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2020년도 남 - 공급가액: 716583000.0, 예측 공급가액: 716583000.0
+2020년도 여 - 공급가액: 686794000.0, 예측 공급가액: 686794000.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>686794000</v>
+      </c>
+      <c r="D208" t="n">
+        <v>686794000</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>매출</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>판관비</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>당기순이익</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>예측매출</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>예측판관비</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>예측당기순이익</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1403377000</v>
+      </c>
+      <c r="C210" t="n">
+        <v>989450000</v>
+      </c>
+      <c r="D210" t="n">
+        <v>413927000</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1403377000</v>
+      </c>
+      <c r="F210" t="n">
+        <v>989450000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>413927000</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>년도: 2020 - 매출: 1403377000, 판관비: 989450000.0, 당기순이익: 413927000.0, 예측 매출: 1403377000.0, 예측 판관비: 989450000.0, 예측 당기순이익: 413927000.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>지역</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>군포시</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>15981000</v>
+      </c>
+      <c r="D212" t="n">
+        <v>17579100</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>2020년도 군포시 - 공급가액: 15981000, 예측 공급가액: 17579100.0
+2020년도 부산 중구 - 공급가액: 14214000, 예측 공급가액: 15635400.000000002
+2020년도 곡성군 - 공급가액: 12735000, 예측 공급가액: 14008500.000000002
+2020년도 고성군 - 공급가액: 12563000, 예측 공급가액: 13819300.000000002
+2020년도 서울특별시 노원구 - 공급가액: 12321000, 예측 공급가액: 13553100.000000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>부산 중구</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>14214000</v>
+      </c>
+      <c r="D213" t="n">
+        <v>15635400</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>곡성군</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>12735000</v>
+      </c>
+      <c r="D214" t="n">
+        <v>14008500</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>고성군</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>12563000</v>
+      </c>
+      <c r="D215" t="n">
+        <v>13819300</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>서울특별시 노원구</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>12321000</v>
+      </c>
+      <c r="D216" t="n">
+        <v>13553100</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>카테고리</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>실제공급가액</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>예측공급가액</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>미분류</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>23040000</v>
+      </c>
+      <c r="D218" t="n">
+        <v>91544600</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2020년도 미분류 - 실제공급가액: 23040000, 예측공급가액: 91544600.0
+2020년도 블라우스 - 실제공급가액: 84070000, 예측공급가액: 101743500.0
+2020년도 스포츠웨어 - 실제공급가액: 325488000, 예측공급가액: 443701300.0
+2020년도 아우터 - 실제공급가액: 98072000, 예측공급가액: 88356400.0
+2020년도 원피스 - 실제공급가액: 89682000, 예측공급가액: 110718800.0
+2020년도 정장 - 실제공급가액: 586635000, 예측공급가액: 1042463500.0
+2020년도 캐주얼 - 실제공급가액: 196390000, 예측공급가액: 418523920.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>블라우스</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>84070000</v>
+      </c>
+      <c r="D219" t="n">
+        <v>101743500</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>스포츠웨어</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>325488000</v>
+      </c>
+      <c r="D220" t="n">
+        <v>443701300</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>아우터</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>98072000</v>
+      </c>
+      <c r="D221" t="n">
+        <v>88356400</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>원피스</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>89682000</v>
+      </c>
+      <c r="D222" t="n">
+        <v>110718800</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>정장</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>586635000</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1042463500</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>캐주얼</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>196390000</v>
+      </c>
+      <c r="D224" t="n">
+        <v>418523920</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>비율</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>실제공급가액</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>예측공급가액</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>454357000</v>
+      </c>
+      <c r="D226" t="n">
+        <v>369272836.0352675</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>10% - 실제공급가액: 454357000.0, 예측공급가액: 369272836.03526753
+20% - 실제공급가액: 840034000.0, 예측공급가액: 682726881.1662414
+30% - 실제공급가액: 1195773000.0, 예측공급가액: 971849200.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>840034000</v>
+      </c>
+      <c r="D227" t="n">
+        <v>682726881.1662414</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>1195773000</v>
+      </c>
+      <c r="D228" t="n">
+        <v>971849200</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>나이대</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>10대</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2021년도 10대 - 공급가액: 0.0, 예측 공급가액: 0.0
+2021년도 20대 - 공급가액: 1099418000.0, 예측 공급가액: 1689016000.0
+2021년도 30대 - 공급가액: 1217677000.0, 예측 공급가액: 1873070000.0
+2021년도 40대 - 공급가액: 721670600.0, 예측 공급가액: 1112068200.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>20대</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>1099418000</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1689016000</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>30대</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>1217677000</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1873070000</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>40대</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>721670600</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1112068200</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>성별</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>1561954000</v>
+      </c>
+      <c r="D235" t="n">
+        <v>2407325000</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2021년도 남 - 공급가액: 1561954000.0, 예측 공급가액: 2407325000.0
+2021년도 여 - 공급가액: 1476811600.0, 예측 공급가액: 2266829200.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>1476811600</v>
+      </c>
+      <c r="D236" t="n">
+        <v>2266829200</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>매출</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>판관비</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>당기순이익</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>예측매출</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>예측판관비</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>예측당기순이익</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B238" t="n">
+        <v>3038765600</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2204864000</v>
+      </c>
+      <c r="D238" t="n">
+        <v>833901600</v>
+      </c>
+      <c r="E238" t="n">
+        <v>4674154200</v>
+      </c>
+      <c r="F238" t="n">
+        <v>3420278000</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1253876200</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>년도: 2021 - 매출: 3038765600, 판관비: 2204864000.0, 당기순이익: 833901600.0, 예측 매출: 4674154200.0, 예측 판관비: 3420278000.0, 예측 당기순이익: 1253876200.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>지역</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>군포시</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>32072000</v>
+      </c>
+      <c r="D240" t="n">
+        <v>35279200</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2021년도 군포시 - 공급가액: 32072000, 예측 공급가액: 35279200.0
+2021년도 속초시 - 공급가액: 28294000, 예측 공급가액: 31123400.000000004
+2021년도 남원시 - 공급가액: 25802000, 예측 공급가액: 28382200.000000004
+2021년도 고성군 - 공급가액: 25748000, 예측 공급가액: 28322800.000000004
+2021년도 서울특별시 노원구 - 공급가액: 24942000, 예측 공급가액: 27436200.000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>속초시</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>28294000</v>
+      </c>
+      <c r="D241" t="n">
+        <v>31123400</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>남원시</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>25802000</v>
+      </c>
+      <c r="D242" t="n">
+        <v>28382200</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>고성군</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>25748000</v>
+      </c>
+      <c r="D243" t="n">
+        <v>28322800</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>서울특별시 노원구</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>24942000</v>
+      </c>
+      <c r="D244" t="n">
+        <v>27436200</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>카테고리</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>실제공급가액</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>예측공급가액</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>미분류</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>110120000</v>
+      </c>
+      <c r="D246" t="n">
+        <v>127242000</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2021년도 미분류 - 실제공급가액: 110120000, 예측공급가액: 127242000.0
+2021년도 블라우스 - 실제공급가액: 160590000, 예측공급가액: 220059000.0
+2021년도 스포츠웨어 - 실제공급가액: 583875000, 예측공급가액: 533920200.0
+2021년도 아우터 - 실제공급가액: 103730000, 예측공급가액: 95613400.0
+2021년도 원피스 - 실제공급가액: 168906000, 예측공급가액: 165830800.0
+2021년도 정장 - 실제공급가액: 1470026600, 예측공급가액: 1467941140.0
+2021년도 캐주얼 - 실제공급가액: 441518000, 예측공급가액: 444389020.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>블라우스</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>160590000</v>
+      </c>
+      <c r="D247" t="n">
+        <v>220059000</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>스포츠웨어</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>583875000</v>
+      </c>
+      <c r="D248" t="n">
+        <v>533920200</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>아우터</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>103730000</v>
+      </c>
+      <c r="D249" t="n">
+        <v>95613400</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>원피스</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>168906000</v>
+      </c>
+      <c r="D250" t="n">
+        <v>165830800</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>정장</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>1470026600</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1467941140</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>캐주얼</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>441518000</v>
+      </c>
+      <c r="D252" t="n">
+        <v>444389020</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>비율</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>실제공급가액</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>예측공급가액</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>369101000</v>
+      </c>
+      <c r="D254" t="n">
+        <v>442512971.8788061</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>10% - 실제공급가액: 369101000.0, 예측공급가액: 442512971.8788061
+20% - 실제공급가액: 689633100.0, 예측공급가액: 826796981.2788204
+30% - 실제공급가액: 987155100.0, 예측공급가액: 1183494320.0000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>689633100</v>
+      </c>
+      <c r="D255" t="n">
+        <v>826796981.2788204</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>987155100</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1183494320</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>나이대</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>10대</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>2022년도 10대 - 공급가액: 0.0, 예측 공급가액: 0.0
+2022년도 20대 - 공급가액: 931728100.0, 예측 공급가액: 1268896800.0
+2022년도 30대 - 공급가액: 1070262100.0, 예측 공급가액: 1458052466.666687
+2022년도 40대 - 공급가액: 608244000.0, 예측 공급가액: 830700200.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>20대</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>931728100</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1268896800</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>30대</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>1070262100</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1458052466.666687</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>40대</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>608244000</v>
+      </c>
+      <c r="D261" t="n">
+        <v>830700200</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>성별</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>1357534000</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1852974666.666626</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>2022년도 남 - 공급가액: 1357534000.0, 예측 공급가액: 1852974666.666626
+2022년도 여 - 공급가액: 1252700200.0, 예측 공급가액: 1704674800.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>1252700200</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1704674800</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>매출</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>판관비</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>당기순이익</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>예측매출</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>예측판관비</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>예측당기순이익</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2513477000</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1943375000</v>
+      </c>
+      <c r="D266" t="n">
+        <v>570102000</v>
+      </c>
+      <c r="E266" t="n">
+        <v>3428639866.666748</v>
+      </c>
+      <c r="F266" t="n">
+        <v>2666488000</v>
+      </c>
+      <c r="G266" t="n">
+        <v>762151866.6666565</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>년도: 2022 - 매출: 2513477000, 판관비: 1943375000.0, 당기순이익: 570102000.0, 예측 매출: 3428639866.666748, 예측 판관비: 2666488000.0, 예측 당기순이익: 762151866.6666565</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>지역</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>군포시</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>26901000</v>
+      </c>
+      <c r="D268" t="n">
+        <v>29591100</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>2022년도 군포시 - 공급가액: 26901000, 예측 공급가액: 29591100.000000004
+2022년도 남원시 - 공급가액: 22877000, 예측 공급가액: 25164700.000000004
+2022년도 성주군 - 공급가액: 22571000, 예측 공급가액: 24828100.000000004
+2022년도 속초시 - 공급가액: 22396000, 예측 공급가액: 24635600.000000004
+2022년도 서울특별시 중구 - 공급가액: 22250000, 예측 공급가액: 24475000.000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>남원시</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>22877000</v>
+      </c>
+      <c r="D269" t="n">
+        <v>25164700</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>성주군</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>22571000</v>
+      </c>
+      <c r="D270" t="n">
+        <v>24828100</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>속초시</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>22396000</v>
+      </c>
+      <c r="D271" t="n">
+        <v>24635600</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>서울특별시 중구</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>22250000</v>
+      </c>
+      <c r="D272" t="n">
+        <v>24475000</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>카테고리</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>실제공급가액</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>예측공급가액</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>미분류</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>191163000</v>
+      </c>
+      <c r="D274" t="n">
+        <v>162939400</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>2022년도 미분류 - 실제공급가액: 191163000, 예측공급가액: 162939400.0
+2022년도 블라우스 - 실제공급가액: 18875000, 예측공급가액: 338374500.0
+2022년도 스포츠웨어 - 실제공급가액: 404155000, 예측공급가액: 624139100.0
+2022년도 아우터 - 실제공급가액: 38137000, 예측공급가액: 102870400.0
+2022년도 원피스 - 실제공급가액: 36856000, 예측공급가액: 220942800.0
+2022년도 정장 - 실제공급가액: 1103948100, 예측공급가액: 1893418780.0
+2022년도 캐주얼 - 실제공급가액: 817100100, 예측공급가액: 470254120.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>블라우스</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>18875000</v>
+      </c>
+      <c r="D275" t="n">
+        <v>338374500</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>스포츠웨어</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>404155000</v>
+      </c>
+      <c r="D276" t="n">
+        <v>624139100</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>아우터</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>38137000</v>
+      </c>
+      <c r="D277" t="n">
+        <v>102870400</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>원피스</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>36856000</v>
+      </c>
+      <c r="D278" t="n">
+        <v>220942800</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>정장</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>1103948100</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1893418780</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>캐주얼</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>817100100</v>
+      </c>
+      <c r="D280" t="n">
+        <v>470254120</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>비율</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>실제공급가액</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>예측공급가액</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>446037000</v>
+      </c>
+      <c r="D282" t="n">
+        <v>557025230.2516929</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>10% - 실제공급가액: 446037000.0, 예측공급가액: 557025230.2516929
+20% - 실제공급가액: 828344000.0, 예측공급가액: 1034462404.0777072
+30% - 실제공급가액: 1175798000.0, 예측공급가액: 1468374040.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>828344000</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1034462404.077707</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>1175798000</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1468374040</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>나이대</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>10대</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>2023년도 10대 - 공급가액: 0.0, 예측 공급가액: 0.0
+2023년도 20대 - 공급가액: 1071702000.0, 예측 공급가액: 1282656050.0
+2023년도 30대 - 공급가액: 1245810000.0, 예측 공급가액: 1499799050.0
+2023년도 40대 - 공급가액: 702735000.0, 예측 공급가액: 841220500.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>20대</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>1071702000</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1282656050</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>30대</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>1245810000</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1499799050</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>40대</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>702735000</v>
+      </c>
+      <c r="D289" t="n">
+        <v>841220500</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>성별</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>1565283000</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1885758500</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>2023년도 남 - 공급가액: 1565283000.0, 예측 공급가액: 1885758500.0
+2023년도 여 - 공급가액: 1454964000.0, 예측 공급가액: 1737917100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>1454964000</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1737917100</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>매출</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>판관비</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>당기순이익</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>예측매출</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>예측판관비</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>예측당기순이익</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B294" t="n">
+        <v>3020247000</v>
+      </c>
+      <c r="C294" t="n">
+        <v>2129908000</v>
+      </c>
+      <c r="D294" t="n">
+        <v>890339000</v>
+      </c>
+      <c r="E294" t="n">
+        <v>3575297000</v>
+      </c>
+      <c r="F294" t="n">
+        <v>2606870500</v>
+      </c>
+      <c r="G294" t="n">
+        <v>968426500</v>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>년도: 2023 - 매출: 3020247000, 판관비: 2129908000.0, 당기순이익: 890339000.0, 예측 매출: 3575297000.0, 예측 판관비: 2606870500.0, 예측 당기순이익: 968426500.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>지역</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>군포시</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>32536000</v>
+      </c>
+      <c r="D296" t="n">
+        <v>35789600</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>2023년도 군포시 - 공급가액: 32536000, 예측 공급가액: 35789600.0
+2023년도 속초시 - 공급가액: 26665000, 예측 공급가액: 29331500.000000004
+2023년도 곡성군 - 공급가액: 26505000, 예측 공급가액: 29155500.000000004
+2023년도 서울특별시 노원구 - 공급가액: 26264000, 예측 공급가액: 28890400.000000004
+2023년도 증평군 - 공급가액: 25991000, 예측 공급가액: 28590100.000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>속초시</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>26665000</v>
+      </c>
+      <c r="D297" t="n">
+        <v>29331500</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>곡성군</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>26505000</v>
+      </c>
+      <c r="D298" t="n">
+        <v>29155500</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>서울특별시 노원구</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>26264000</v>
+      </c>
+      <c r="D299" t="n">
+        <v>28890400</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>증평군</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>25991000</v>
+      </c>
+      <c r="D300" t="n">
+        <v>28590100</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>카테고리</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>실제공급가액</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>예측공급가액</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>미분류</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>110600000</v>
+      </c>
+      <c r="D302" t="n">
+        <v>198636800</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>2023년도 미분류 - 실제공급가액: 110600000, 예측공급가액: 198636800.0
+2023년도 블라우스 - 실제공급가액: 161635000, 예측공급가액: 456690000.0
+2023년도 스포츠웨어 - 실제공급가액: 575126000, 예측공급가액: 714358000.0
+2023년도 아우터 - 실제공급가액: 103812000, 예측공급가액: 110127400.0
+2023년도 원피스 - 실제공급가액: 168030000, 예측공급가액: 276054800.0
+2023년도 정장 - 실제공급가액: 1460119000, 예측공급가액: 2318896420.0
+2023년도 캐주얼 - 실제공급가액: 440925000, 예측공급가액: 496119220.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>블라우스</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>161635000</v>
+      </c>
+      <c r="D303" t="n">
+        <v>456690000</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>스포츠웨어</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>575126000</v>
+      </c>
+      <c r="D304" t="n">
+        <v>714358000</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>아우터</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>103812000</v>
+      </c>
+      <c r="D305" t="n">
+        <v>110127400</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>원피스</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>168030000</v>
+      </c>
+      <c r="D306" t="n">
+        <v>276054800</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>정장</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>1460119000</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2318896420</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>캐주얼</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>440925000</v>
+      </c>
+      <c r="D308" t="n">
+        <v>496119220</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>비율</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>실제공급가액</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>예측공급가액</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>750781000</v>
+      </c>
+      <c r="D310" t="n">
+        <v>727843933.7285652</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>10% - 실제공급가액: 750781000.0, 예측공급가액: 727843933.7285652
+20% - 실제공급가액: 1405981000.0, 예측공급가액: 1363026956.978962
+30% - 실제공급가액: 2008998000.0, 예측공급가액: 1947621220.0000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>1405981000</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1363026956.978962</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>2008998000</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1947621220</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>나이대</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>10대</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024년도 10대 - 공급가액: 0.0, 예측 공급가액: 0.0
+2024년도 20대 - 공급가액: 1886065000.0, 예측 공급가액: 1917178820.0
+2024년도 30대 - 공급가액: 2067136000.0, 예측 공급가액: 2143984920.0
+2024년도 40대 - 공급가액: 1249153000.0, 예측 공급가액: 1267662440.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>20대</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>1886065000</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1917178820</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>30대</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>2067136000</v>
+      </c>
+      <c r="D316" t="n">
+        <v>2143984920</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>40대</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>1249153000</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1267662440</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>성별</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>2684103000</v>
+      </c>
+      <c r="D319" t="n">
+        <v>2758602100</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>2024년도 남 - 공급가액: 2684103000.0, 예측 공급가액: 2758602100.0
+2024년도 여 - 공급가액: 2518251000.0, 예측 공급가액: 2570224080.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>2518251000</v>
+      </c>
+      <c r="D320" t="n">
+        <v>2570224080</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>매출</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>판관비</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>당기순이익</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>예측매출</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>예측판관비</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>예측당기순이익</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B322" t="n">
+        <v>5202354000</v>
+      </c>
+      <c r="C322" t="n">
+        <v>4121537000</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1080817000</v>
+      </c>
+      <c r="E322" t="n">
+        <v>5309474740</v>
+      </c>
+      <c r="F322" t="n">
+        <v>4134592200</v>
+      </c>
+      <c r="G322" t="n">
+        <v>1174882540</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>년도: 2024 - 매출: 5202354000, 판관비: 4121537000.0, 당기순이익: 1080817000.0, 예측 매출: 5309474740.0, 예측 판관비: 4134592200.0, 예측 당기순이익: 1174882540.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>지역</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>공급가액</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>예측 공급가액</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>권선구</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>601772000</v>
+      </c>
+      <c r="D324" t="n">
+        <v>620577375</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024년도 권선구 - 공급가액: 601772000, 예측 공급가액: 620577375.0
+2024년도 기흥구 - 공급가액: 601772000, 예측 공급가액: 620577375.0
+2024년도 남구 - 공급가액: 601772000, 예측 공급가액: 620577375.0
+2024년도 단원구 - 공급가액: 601772000, 예측 공급가액: 620577375.0
+2024년도 수지구 - 공급가액: 601772000, 예측 공급가액: 620577375.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>기흥구</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>601772000</v>
+      </c>
+      <c r="D325" t="n">
+        <v>620577375</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>남구</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>601772000</v>
+      </c>
+      <c r="D326" t="n">
+        <v>620577375</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>단원구</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>601772000</v>
+      </c>
+      <c r="D327" t="n">
+        <v>620577375</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>수지구</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>601772000</v>
+      </c>
+      <c r="D328" t="n">
+        <v>620577375</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>카테고리</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>실제공급가액</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>예측공급가액</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>미분류</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>201287000</v>
+      </c>
+      <c r="D330" t="n">
+        <v>234334200</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024년도 미분류 - 실제공급가액: 201287000, 예측공급가액: 234334200.0
+2024년도 블라우스 - 실제공급가액: 675125000, 예측공급가액: 575005500.0
+2024년도 스포츠웨어 - 실제공급가액: 780957000, 예측공급가액: 804576900.0
+2024년도 아우터 - 실제공급가액: 134316000, 예측공급가액: 117384400.0
+2024년도 원피스 - 실제공급가액: 365680000, 예측공급가액: 331166800.0
+2024년도 정장 - 실제공급가액: 2718977000, 예측공급가액: 2744374060.0
+2024년도 캐주얼 - 실제공급가액: 326012000, 예측공급가액: 521984320.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>블라우스</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>675125000</v>
+      </c>
+      <c r="D331" t="n">
+        <v>575005500</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>스포츠웨어</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>780957000</v>
+      </c>
+      <c r="D332" t="n">
+        <v>804576900</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>아우터</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>134316000</v>
+      </c>
+      <c r="D333" t="n">
+        <v>117384400</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>원피스</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>365680000</v>
+      </c>
+      <c r="D334" t="n">
+        <v>331166800</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>정장</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>2718977000</v>
+      </c>
+      <c r="D335" t="n">
+        <v>2744374060</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>캐주얼</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>326012000</v>
+      </c>
+      <c r="D336" t="n">
         <v>521984320</v>
       </c>
     </row>
